--- a/Fundamental/field/cf_field.xlsx
+++ b/Fundamental/field/cf_field.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,182 +2026,6 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
